--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>Serie</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F452"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10391,13 +10394,13 @@
         <v>98.92</v>
       </c>
       <c r="D447">
-        <v>82.23999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="E447">
-        <v>249.01</v>
+        <v>249.02</v>
       </c>
       <c r="F447">
-        <v>207.03</v>
+        <v>207.04</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10408,16 +10411,16 @@
         <v>726.37</v>
       </c>
       <c r="C448">
-        <v>98.98999999999999</v>
+        <v>98.88</v>
       </c>
       <c r="D448">
-        <v>83.23</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E448">
-        <v>248.89</v>
+        <v>248.61</v>
       </c>
       <c r="F448">
-        <v>209.26</v>
+        <v>208.66</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10428,16 +10431,16 @@
         <v>707.85</v>
       </c>
       <c r="C449">
-        <v>96.81</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="D449">
-        <v>81.55</v>
+        <v>81.56</v>
       </c>
       <c r="E449">
-        <v>250.79</v>
+        <v>250.81</v>
       </c>
       <c r="F449">
-        <v>211.24</v>
+        <v>211.28</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10448,16 +10451,16 @@
         <v>712.26</v>
       </c>
       <c r="C450">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="D450">
-        <v>84.02</v>
+        <v>84.03</v>
       </c>
       <c r="E450">
-        <v>256.33</v>
+        <v>256.36</v>
       </c>
       <c r="F450">
-        <v>216.95</v>
+        <v>216.98</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10468,16 +10471,16 @@
         <v>726.54</v>
       </c>
       <c r="C451">
-        <v>102.02</v>
+        <v>102.11</v>
       </c>
       <c r="D451">
-        <v>86.31999999999999</v>
+        <v>86.45</v>
       </c>
       <c r="E451">
-        <v>258.52</v>
+        <v>258.73</v>
       </c>
       <c r="F451">
-        <v>218.74</v>
+        <v>219.06</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10486,6 +10489,26 @@
       </c>
       <c r="B452">
         <v>750.4400000000001</v>
+      </c>
+      <c r="C452">
+        <v>104.24</v>
+      </c>
+      <c r="D452">
+        <v>88.45</v>
+      </c>
+      <c r="E452">
+        <v>257.77</v>
+      </c>
+      <c r="F452">
+        <v>218.73</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>457</v>
+      </c>
+      <c r="B453">
+        <v>779.83</v>
       </c>
     </row>
   </sheetData>

--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>Serie</t>
   </si>
@@ -1388,6 +1388,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10191,16 +10194,16 @@
         <v>853.38</v>
       </c>
       <c r="C437">
-        <v>105.99</v>
+        <v>106</v>
       </c>
       <c r="D437">
-        <v>87.95</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="E437">
-        <v>220.59</v>
+        <v>220.6</v>
       </c>
       <c r="F437">
-        <v>183.04</v>
+        <v>183.06</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10251,16 +10254,16 @@
         <v>784.73</v>
       </c>
       <c r="C440">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
       <c r="D440">
-        <v>84.56</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="E440">
-        <v>226.51</v>
+        <v>226.53</v>
       </c>
       <c r="F440">
-        <v>191.19</v>
+        <v>191.21</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -10311,16 +10314,16 @@
         <v>788.27</v>
       </c>
       <c r="C443">
-        <v>102.61</v>
+        <v>102.6</v>
       </c>
       <c r="D443">
-        <v>85.53</v>
+        <v>85.52</v>
       </c>
       <c r="E443">
-        <v>234.21</v>
+        <v>234.19</v>
       </c>
       <c r="F443">
-        <v>195.22</v>
+        <v>195.19</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10331,16 +10334,16 @@
         <v>762.88</v>
       </c>
       <c r="C444">
-        <v>100.92</v>
+        <v>100.91</v>
       </c>
       <c r="D444">
-        <v>83.55</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E444">
-        <v>237.77</v>
+        <v>237.75</v>
       </c>
       <c r="F444">
-        <v>196.85</v>
+        <v>196.82</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10354,13 +10357,13 @@
         <v>99.06999999999999</v>
       </c>
       <c r="D445">
-        <v>81.79000000000001</v>
+        <v>81.78</v>
       </c>
       <c r="E445">
-        <v>243.09</v>
+        <v>243.08</v>
       </c>
       <c r="F445">
-        <v>200.69</v>
+        <v>200.66</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10380,7 +10383,7 @@
         <v>246.53</v>
       </c>
       <c r="F446">
-        <v>204.35</v>
+        <v>204.34</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10431,16 +10434,16 @@
         <v>707.85</v>
       </c>
       <c r="C449">
-        <v>96.81999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D449">
-        <v>81.56</v>
+        <v>81.62</v>
       </c>
       <c r="E449">
-        <v>250.81</v>
+        <v>250.88</v>
       </c>
       <c r="F449">
-        <v>211.28</v>
+        <v>211.44</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10460,7 +10463,7 @@
         <v>256.36</v>
       </c>
       <c r="F450">
-        <v>216.98</v>
+        <v>216.96</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10471,16 +10474,16 @@
         <v>726.54</v>
       </c>
       <c r="C451">
-        <v>102.11</v>
+        <v>101.96</v>
       </c>
       <c r="D451">
-        <v>86.45</v>
+        <v>86.47</v>
       </c>
       <c r="E451">
-        <v>258.73</v>
+        <v>258.35</v>
       </c>
       <c r="F451">
-        <v>219.06</v>
+        <v>219.1</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10491,16 +10494,16 @@
         <v>750.4400000000001</v>
       </c>
       <c r="C452">
-        <v>104.24</v>
+        <v>104.26</v>
       </c>
       <c r="D452">
-        <v>88.45</v>
+        <v>88.83</v>
       </c>
       <c r="E452">
-        <v>257.77</v>
+        <v>257.83</v>
       </c>
       <c r="F452">
-        <v>218.73</v>
+        <v>219.67</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10509,6 +10512,26 @@
       </c>
       <c r="B453">
         <v>779.83</v>
+      </c>
+      <c r="C453">
+        <v>108.06</v>
+      </c>
+      <c r="D453">
+        <v>92.42</v>
+      </c>
+      <c r="E453">
+        <v>258.18</v>
+      </c>
+      <c r="F453">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>458</v>
+      </c>
+      <c r="B454">
+        <v>783.63</v>
       </c>
     </row>
   </sheetData>

--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t>Serie</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10057,13 +10060,13 @@
         <v>95.09</v>
       </c>
       <c r="D430">
-        <v>79.66</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="E430">
-        <v>229.75</v>
+        <v>229.74</v>
       </c>
       <c r="F430">
-        <v>192.45</v>
+        <v>192.44</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -10074,16 +10077,16 @@
         <v>721.03</v>
       </c>
       <c r="C431">
-        <v>95.23999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D431">
-        <v>79.53</v>
+        <v>79.64</v>
       </c>
       <c r="E431">
-        <v>231.12</v>
+        <v>231.26</v>
       </c>
       <c r="F431">
-        <v>192.98</v>
+        <v>193.25</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -10094,16 +10097,16 @@
         <v>776.53</v>
       </c>
       <c r="C432">
-        <v>103.06</v>
+        <v>102.99</v>
       </c>
       <c r="D432">
-        <v>85.59999999999999</v>
+        <v>85.47</v>
       </c>
       <c r="E432">
-        <v>232.44</v>
+        <v>232.3</v>
       </c>
       <c r="F432">
-        <v>193.07</v>
+        <v>192.78</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -10114,16 +10117,16 @@
         <v>770.39</v>
       </c>
       <c r="C433">
-        <v>102.74</v>
+        <v>102.69</v>
       </c>
       <c r="D433">
-        <v>85.06</v>
+        <v>84.97</v>
       </c>
       <c r="E433">
-        <v>233.8</v>
+        <v>233.7</v>
       </c>
       <c r="F433">
-        <v>193.58</v>
+        <v>193.37</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -10134,16 +10137,16 @@
         <v>772.65</v>
       </c>
       <c r="C434">
-        <v>103.52</v>
+        <v>103.55</v>
       </c>
       <c r="D434">
-        <v>84.95999999999999</v>
+        <v>85</v>
       </c>
       <c r="E434">
-        <v>236.31</v>
+        <v>236.36</v>
       </c>
       <c r="F434">
-        <v>193.93</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -10154,16 +10157,16 @@
         <v>796.38</v>
       </c>
       <c r="C435">
-        <v>104.91</v>
+        <v>105.09</v>
       </c>
       <c r="D435">
-        <v>85.89</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="E435">
-        <v>233.27</v>
+        <v>233.68</v>
       </c>
       <c r="F435">
-        <v>190.97</v>
+        <v>191.79</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -10174,16 +10177,16 @@
         <v>839.38</v>
       </c>
       <c r="C436">
-        <v>107.26</v>
+        <v>107.77</v>
       </c>
       <c r="D436">
-        <v>89.26000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="E436">
-        <v>226.95</v>
+        <v>228.04</v>
       </c>
       <c r="F436">
-        <v>188.87</v>
+        <v>191.08</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -10194,16 +10197,16 @@
         <v>853.38</v>
       </c>
       <c r="C437">
-        <v>106</v>
+        <v>107.08</v>
       </c>
       <c r="D437">
-        <v>87.95999999999999</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="E437">
-        <v>220.6</v>
+        <v>222.85</v>
       </c>
       <c r="F437">
-        <v>183.06</v>
+        <v>187.62</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10214,16 +10217,16 @@
         <v>821.8099999999999</v>
       </c>
       <c r="C438">
-        <v>101.78</v>
+        <v>102.6</v>
       </c>
       <c r="D438">
-        <v>85.48999999999999</v>
+        <v>87.16</v>
       </c>
       <c r="E438">
-        <v>219.75</v>
+        <v>221.52</v>
       </c>
       <c r="F438">
-        <v>184.57</v>
+        <v>188.17</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10234,16 +10237,16 @@
         <v>793.72</v>
       </c>
       <c r="C439">
-        <v>100.57</v>
+        <v>101.18</v>
       </c>
       <c r="D439">
-        <v>84.40000000000001</v>
+        <v>85.64</v>
       </c>
       <c r="E439">
-        <v>224.59</v>
+        <v>225.95</v>
       </c>
       <c r="F439">
-        <v>188.48</v>
+        <v>191.25</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10254,16 +10257,16 @@
         <v>784.73</v>
       </c>
       <c r="C440">
-        <v>100.19</v>
+        <v>100.73</v>
       </c>
       <c r="D440">
-        <v>84.56999999999999</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="E440">
-        <v>226.53</v>
+        <v>227.75</v>
       </c>
       <c r="F440">
-        <v>191.21</v>
+        <v>193.72</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -10274,16 +10277,16 @@
         <v>784.66</v>
       </c>
       <c r="C441">
-        <v>101.57</v>
+        <v>102</v>
       </c>
       <c r="D441">
-        <v>85.91</v>
+        <v>86.8</v>
       </c>
       <c r="E441">
-        <v>229.9</v>
+        <v>230.88</v>
       </c>
       <c r="F441">
-        <v>194.46</v>
+        <v>196.48</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -10294,16 +10297,16 @@
         <v>773.4</v>
       </c>
       <c r="C442">
-        <v>100.79</v>
+        <v>101.14</v>
       </c>
       <c r="D442">
-        <v>84.31999999999999</v>
+        <v>85.02</v>
       </c>
       <c r="E442">
-        <v>232.85</v>
+        <v>233.65</v>
       </c>
       <c r="F442">
-        <v>194.8</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -10314,16 +10317,16 @@
         <v>788.27</v>
       </c>
       <c r="C443">
-        <v>102.6</v>
+        <v>102.99</v>
       </c>
       <c r="D443">
-        <v>85.52</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="E443">
-        <v>234.19</v>
+        <v>235.07</v>
       </c>
       <c r="F443">
-        <v>195.19</v>
+        <v>196.95</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10334,16 +10337,16 @@
         <v>762.88</v>
       </c>
       <c r="C444">
-        <v>100.91</v>
+        <v>101.08</v>
       </c>
       <c r="D444">
-        <v>83.54000000000001</v>
+        <v>83.87</v>
       </c>
       <c r="E444">
-        <v>237.75</v>
+        <v>238.15</v>
       </c>
       <c r="F444">
-        <v>196.82</v>
+        <v>197.61</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10354,16 +10357,16 @@
         <v>734.73</v>
       </c>
       <c r="C445">
-        <v>99.06999999999999</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="D445">
-        <v>81.78</v>
+        <v>81.73</v>
       </c>
       <c r="E445">
-        <v>243.08</v>
+        <v>243.01</v>
       </c>
       <c r="F445">
-        <v>200.66</v>
+        <v>200.53</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10374,16 +10377,16 @@
         <v>723.5599999999999</v>
       </c>
       <c r="C446">
-        <v>98.26000000000001</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="D446">
-        <v>81.44</v>
+        <v>81.05</v>
       </c>
       <c r="E446">
-        <v>246.53</v>
+        <v>246.06</v>
       </c>
       <c r="F446">
-        <v>204.34</v>
+        <v>203.35</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10394,16 +10397,16 @@
         <v>722.63</v>
       </c>
       <c r="C447">
-        <v>98.92</v>
+        <v>98.37</v>
       </c>
       <c r="D447">
-        <v>82.25</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="E447">
-        <v>249.02</v>
+        <v>247.62</v>
       </c>
       <c r="F447">
-        <v>207.04</v>
+        <v>204.09</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10414,16 +10417,16 @@
         <v>726.37</v>
       </c>
       <c r="C448">
-        <v>98.88</v>
+        <v>98.09</v>
       </c>
       <c r="D448">
-        <v>82.98999999999999</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="E448">
-        <v>248.61</v>
+        <v>246.64</v>
       </c>
       <c r="F448">
-        <v>208.66</v>
+        <v>204.46</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10434,16 +10437,16 @@
         <v>707.85</v>
       </c>
       <c r="C449">
-        <v>96.84999999999999</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="D449">
-        <v>81.62</v>
+        <v>79.83</v>
       </c>
       <c r="E449">
-        <v>250.88</v>
+        <v>248.71</v>
       </c>
       <c r="F449">
-        <v>211.44</v>
+        <v>206.8</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10454,16 +10457,16 @@
         <v>712.26</v>
       </c>
       <c r="C450">
-        <v>99.28</v>
+        <v>98.03</v>
       </c>
       <c r="D450">
-        <v>84.03</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="E450">
-        <v>256.36</v>
+        <v>253.14</v>
       </c>
       <c r="F450">
-        <v>216.96</v>
+        <v>210.06</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10474,16 +10477,16 @@
         <v>726.54</v>
       </c>
       <c r="C451">
-        <v>101.96</v>
+        <v>100.44</v>
       </c>
       <c r="D451">
-        <v>86.47</v>
+        <v>83.22</v>
       </c>
       <c r="E451">
-        <v>258.35</v>
+        <v>254.51</v>
       </c>
       <c r="F451">
-        <v>219.1</v>
+        <v>210.87</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10494,16 +10497,16 @@
         <v>750.4400000000001</v>
       </c>
       <c r="C452">
-        <v>104.26</v>
+        <v>102.71</v>
       </c>
       <c r="D452">
-        <v>88.83</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="E452">
-        <v>257.83</v>
+        <v>253.98</v>
       </c>
       <c r="F452">
-        <v>219.67</v>
+        <v>211.32</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10514,16 +10517,16 @@
         <v>779.83</v>
       </c>
       <c r="C453">
-        <v>108.06</v>
+        <v>106.45</v>
       </c>
       <c r="D453">
-        <v>92.42</v>
+        <v>88.92</v>
       </c>
       <c r="E453">
-        <v>258.18</v>
+        <v>254.32</v>
       </c>
       <c r="F453">
-        <v>220.81</v>
+        <v>212.44</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -10532,6 +10535,26 @@
       </c>
       <c r="B454">
         <v>783.63</v>
+      </c>
+      <c r="C454">
+        <v>106.1</v>
+      </c>
+      <c r="D454">
+        <v>88.73</v>
+      </c>
+      <c r="E454">
+        <v>255.29</v>
+      </c>
+      <c r="F454">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>459</v>
+      </c>
+      <c r="B455">
+        <v>813.95</v>
       </c>
     </row>
   </sheetData>
